--- a/显示屏数据.xlsx
+++ b/显示屏数据.xlsx
@@ -442,11 +442,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3、平板电脑的宽度一般为1024-1280之间，浏览网页的一般不会竖放，所以这里考虑的是横放网页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：手机屏幕的宽度在320-640之间</t>
+    <t>总结：手机屏幕的宽度在320-640之间，高度在480-1000之间（大部分为500-700）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、平板电脑的宽度一般为1024-1280之间，浏览网页的一般不会竖放，所以这里考虑的是横放网页，竖放的话，高度一般为768、800</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -1426,7 +1426,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
